--- a/src/main/java/week3/coins/Coins.xlsx
+++ b/src/main/java/week3/coins/Coins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Projects/my/coursera-sport/src/main/java/week3/coins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8D0EC-0444-6946-8530-FEC5079F868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD5A8F-A8DA-5A4B-ABBC-91BF4ECE9405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="5240" windowWidth="28040" windowHeight="17360" xr2:uid="{2B07D97D-05C0-404D-A79A-BE0E8E664808}"/>
+    <workbookView xWindow="7120" yWindow="2640" windowWidth="28040" windowHeight="17360" xr2:uid="{2B07D97D-05C0-404D-A79A-BE0E8E664808}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,10 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -394,289 +403,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBBD976-B9C2-4E44-A0FD-4C5436B963A2}">
-  <dimension ref="A2:AN6"/>
+  <dimension ref="A2:AO7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="10" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="40" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="41" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>10</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>11</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>12</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>13</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>14</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>15</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>16</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>17</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>18</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>19</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>20</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>21</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>22</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>23</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>24</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>25</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>26</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>27</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>28</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>29</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>30</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>31</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>32</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>33</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>34</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AK2" s="1">
         <v>35</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AL2" s="1">
         <v>36</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>37</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AN2" s="1">
         <v>38</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3">
+        <v>16</v>
+      </c>
+      <c r="T3" s="3">
+        <v>17</v>
+      </c>
+      <c r="U3" s="3">
+        <v>18</v>
+      </c>
+      <c r="V3" s="3">
+        <v>19</v>
+      </c>
+      <c r="W3" s="3">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>33</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>35</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>36</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>37</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="K4">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="M4">
         <v>11</v>
       </c>
-      <c r="M3">
+      <c r="N4">
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="O4">
         <v>13</v>
       </c>
-      <c r="O3">
+      <c r="P4">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="Q4">
         <v>15</v>
       </c>
-      <c r="Q3">
+      <c r="R4">
         <v>16</v>
       </c>
-      <c r="R3">
+      <c r="S4">
         <v>17</v>
       </c>
-      <c r="S3">
+      <c r="T4">
         <v>18</v>
       </c>
-      <c r="T3">
+      <c r="U4">
         <v>19</v>
       </c>
-      <c r="U3">
+      <c r="V4">
         <v>20</v>
       </c>
-      <c r="V3">
+      <c r="W4">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="X4">
         <v>22</v>
       </c>
-      <c r="X3">
+      <c r="Y4">
         <v>23</v>
       </c>
-      <c r="Y3">
+      <c r="Z4">
         <v>24</v>
       </c>
-      <c r="Z3">
+      <c r="AA4">
         <v>25</v>
       </c>
-      <c r="AA3">
+      <c r="AB4">
         <v>26</v>
       </c>
-      <c r="AB3">
+      <c r="AC4">
         <v>27</v>
       </c>
-      <c r="AC3">
+      <c r="AD4">
         <v>28</v>
       </c>
-      <c r="AD3">
+      <c r="AE4">
         <v>29</v>
       </c>
-      <c r="AE3">
+      <c r="AF4">
         <v>30</v>
       </c>
-      <c r="AF3">
+      <c r="AG4">
         <v>31</v>
       </c>
-      <c r="AG3">
+      <c r="AH4">
         <v>32</v>
       </c>
-      <c r="AH3">
+      <c r="AI4">
         <v>33</v>
       </c>
-      <c r="AI3">
+      <c r="AJ4">
         <v>34</v>
       </c>
-      <c r="AJ3">
+      <c r="AK4">
         <v>35</v>
       </c>
-      <c r="AK3">
+      <c r="AL4">
         <v>36</v>
       </c>
-      <c r="AL3">
+      <c r="AM4">
         <v>37</v>
       </c>
-      <c r="AM3">
+      <c r="AN4">
         <v>38</v>
       </c>
-      <c r="AN3">
+      <c r="AO4">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
